--- a/Документация/TestRarchet.xlsx
+++ b/Документация/TestRarchet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Наименование</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">Общая сумма </t>
   </si>
   <si>
-    <t>Стоимость единицы материала (K)</t>
-  </si>
-  <si>
     <t>руб</t>
   </si>
   <si>
@@ -52,15 +49,6 @@
     <t>шт</t>
   </si>
   <si>
-    <t>Ставка оплаты труда рабочего в час (R)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cтавка оплаты труда рабочего в час (T)</t>
-  </si>
-  <si>
-    <t>Cтоимость аренды оборудования в день (O)</t>
-  </si>
-  <si>
     <t>Cумма контракта (S)</t>
   </si>
   <si>
@@ -70,12 +58,6 @@
     <t>дней</t>
   </si>
   <si>
-    <t xml:space="preserve">L = O * A </t>
-  </si>
-  <si>
-    <t>Количество дней (А)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cm = K * M </t>
   </si>
   <si>
@@ -85,9 +67,6 @@
     <t>Стоимость рабочей силы (EmployeeCost)</t>
   </si>
   <si>
-    <t xml:space="preserve">Стоимость аренды оборудования  (RentalEquipment): </t>
-  </si>
-  <si>
     <t>Прибыль компании (CompanyIncome)</t>
   </si>
   <si>
@@ -100,9 +79,6 @@
     <t>Наем инженера (In)</t>
   </si>
   <si>
-    <t>Наем дизайнера интерьера  (De)</t>
-  </si>
-  <si>
     <t>м2</t>
   </si>
   <si>
@@ -113,6 +89,15 @@
   </si>
   <si>
     <t>Планируемая площадь дома (Sq)</t>
+  </si>
+  <si>
+    <t>Стоимость единицы материала (K) (таких может быть несколько)</t>
+  </si>
+  <si>
+    <t>Ставка бригады за день (R)</t>
+  </si>
+  <si>
+    <t>Количество дней работы (T)</t>
   </si>
 </sst>
 </file>
@@ -378,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A2:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
@@ -406,10 +391,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <f>'Тестовые значения'!B1*'Тестовые значения'!B2</f>
@@ -421,14 +406,14 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <f>('Тестовые значения'!B3*'Тестовые значения'!B4)+'Тестовые значения'!B10</f>
-        <v>415000</v>
+        <f>('Тестовые значения'!B3*'Тестовые значения'!B4)+'Тестовые значения'!B8</f>
+        <v>345000</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -436,51 +421,36 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <f>'Тестовые значения'!B5*'Тестовые значения'!B6</f>
-        <v>30000</v>
-      </c>
-      <c r="D4" t="s">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f>'Тестовые значения'!B7*'Тестовые значения'!B8</f>
-        <v>5000</v>
-      </c>
-    </row>
     <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <f>SUM(C2:C5)+C6</f>
-        <v>550000</v>
+      <c r="C7">
+        <f>SUM(C2:C4)+C5</f>
+        <v>450000</v>
       </c>
     </row>
   </sheetData>
@@ -490,10 +460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
@@ -503,161 +473,126 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <f>50</f>
         <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <f>2000</f>
         <v>2000</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <f>200</f>
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <f>500</f>
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <f>1000</f>
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <f>30</f>
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>50000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
+        <f>10/100</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <f>10/100</f>
-        <v>0.1</v>
+        <f>(B9+B10+B11+B12)*B14</f>
+        <v>245000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <f>(B11+B12+B13+B14)*B16</f>
-        <v>315000</v>
+        <v>1000</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Документация/TestRarchet.xlsx
+++ b/Документация/TestRarchet.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <f>(B9+B10+B11+B12)*B14</f>
+        <f>(B9+B10+B11)*B14</f>
         <v>245000</v>
       </c>
       <c r="C8" t="s">

--- a/Документация/TestRarchet.xlsx
+++ b/Документация/TestRarchet.xlsx
@@ -12,14 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2808"/>
   </bookViews>
   <sheets>
-    <sheet name="Тестовые значения" sheetId="2" r:id="rId1"/>
+    <sheet name="Полный тестовый расчет" sheetId="2" r:id="rId1"/>
+    <sheet name="Расчет" sheetId="5" r:id="rId2"/>
+    <sheet name="Тестовые значения " sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Застройщик</t>
   </si>
@@ -112,6 +114,84 @@
   </si>
   <si>
     <t>Итоговая стоимость работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общая сумма </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A = S * Pr</t>
+  </si>
+  <si>
+    <t>Прибыль компании (CompanyIncome)</t>
+  </si>
+  <si>
+    <t>Sr = (R * T) + W</t>
+  </si>
+  <si>
+    <t>Стоимость рабочей силы (EmployeeCost)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cm = K * M </t>
+  </si>
+  <si>
+    <t>Стоимость материалов (MaterialCost)</t>
+  </si>
+  <si>
+    <t>Расчет</t>
+  </si>
+  <si>
+    <t>Формула расчета</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>м2</t>
+  </si>
+  <si>
+    <t>Планируемая площадь дома (Sq)</t>
+  </si>
+  <si>
+    <t>руб</t>
+  </si>
+  <si>
+    <t>Наем инженера (In)</t>
+  </si>
+  <si>
+    <t>Наем конструктора (Ko)</t>
+  </si>
+  <si>
+    <t>Наем архитектора (Ar)</t>
+  </si>
+  <si>
+    <t>Оплата для работкном с оплатой за площадь (W)</t>
+  </si>
+  <si>
+    <t>Процент прибыли, который компания хочет получить (Pr)</t>
+  </si>
+  <si>
+    <t>Cумма контракта (S)</t>
+  </si>
+  <si>
+    <t>дней</t>
+  </si>
+  <si>
+    <t>Количество дней работы (T)</t>
+  </si>
+  <si>
+    <t>Ставка бригады за день (R)</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Количество необходимых единиц материала (M)</t>
+  </si>
+  <si>
+    <t>Стоимость единицы материала (K) (таких может быть несколько)</t>
   </si>
 </sst>
 </file>
@@ -408,7 +488,7 @@
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G8" sqref="E4:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
@@ -676,4 +756,244 @@
   <pageMargins left="0.59055554866790805" right="0.59055554866790805" top="0.59055554866790805" bottom="0.59055554866790805" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="66.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <f>'Тестовые значения '!B1*'Тестовые значения '!B2</f>
+        <v>100000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <f>('Тестовые значения '!B3*'Тестовые значения '!B4)+'Тестовые значения '!B8</f>
+        <v>345000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <f>'Тестовые значения '!B5*'Тестовые значения '!B6</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C4)+C5</f>
+        <v>450000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.79000002145767201" right="0.79000002145767201" top="0.79000002145767201" bottom="0.79000002145767201" header="0.19680555164814001" footer="0.19680555164814001"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="72.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <f>500</f>
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>50000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <f>10/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <f>(B9+B10+B11)*B14</f>
+        <v>245000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>1500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.59055554866790805" right="0.59055554866790805" top="0.59055554866790805" bottom="0.59055554866790805" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+</worksheet>
 </file>